--- a/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化一维二维单元尺寸定义（模板）.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化一维二维单元尺寸定义（模板）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="8" r:id="rId1"/>
@@ -1859,8 +1859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2101,7 +2101,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="48.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2469,7 +2469,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3467,8 +3467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3967,7 +3967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>

--- a/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化一维二维单元尺寸定义（模板）.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化一维二维单元尺寸定义（模板）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="8" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="二维单元尺寸定义复合材料（模板）" sheetId="11" r:id="rId5"/>
     <sheet name="二维单元尺寸定义金属材料（模板）" sheetId="12" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -199,9 +199,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-通用
-特殊一
-特殊二</t>
+窗口一
+窗口二
+窗口三</t>
         </r>
       </text>
     </comment>
@@ -368,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -493,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -618,7 +618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -743,7 +743,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -762,7 +762,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="162">
   <si>
     <t>关闭按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1133,10 +1133,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>通用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>操作控件后等待时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1409,6 +1405,17 @@
   </si>
   <si>
     <t>pcxx2DMB015</t>
+  </si>
+  <si>
+    <t>操作子窗口标题</t>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1857,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1879,7 +1886,7 @@
     <col min="16" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1890,13 +1897,13 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>40</v>
@@ -1920,16 +1927,19 @@
         <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -1940,10 +1950,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>13</v>
@@ -1955,7 +1965,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>22</v>
@@ -1969,17 +1979,20 @@
       <c r="M2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O2" s="7">
-        <v>6</v>
-      </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1989,7 +2002,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:16" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1999,7 +2012,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:16" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2009,7 +2022,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:16" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2019,7 +2032,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:16" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2029,7 +2042,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:16" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2045,7 +2058,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:16" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2061,7 +2074,7 @@
       <c r="M9" s="7"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:16" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="8"/>
@@ -2069,7 +2082,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:16" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="8"/>
@@ -2080,15 +2093,18 @@
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K2 J3:J9">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J9 K1:K2">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 N3:N9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N9 Q2">
       <formula1>"拼接路径,不拼接路径"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L2 K3:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
       <formula1>"信息窗口,警告弹出,控件文本"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L2">
+      <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2100,8 +2116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="48.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2117,13 +2133,13 @@
     <row r="1" spans="1:7" s="10" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>40</v>
@@ -2140,13 +2156,13 @@
         <v>82</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>83</v>
@@ -2163,22 +2179,22 @@
         <v>85</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>86</v>
       </c>
       <c r="F3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2209,27 +2225,27 @@
         <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -2252,224 +2268,225 @@
     </row>
     <row r="7" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>116</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2482,13 +2499,14 @@
     <col min="11" max="11" width="5.625" style="2" customWidth="1"/>
     <col min="12" max="12" width="7.5" style="8" customWidth="1"/>
     <col min="13" max="13" width="10.875" style="9"/>
-    <col min="14" max="14" width="5.125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="7.625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10.875" style="8"/>
-    <col min="17" max="16384" width="10.875" style="2"/>
+    <col min="14" max="14" width="12" style="9" customWidth="1"/>
+    <col min="15" max="15" width="5.125" style="9" customWidth="1"/>
+    <col min="16" max="16" width="7.625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="10.875" style="8"/>
+    <col min="18" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2499,13 +2517,13 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>40</v>
@@ -2529,16 +2547,19 @@
         <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -2549,10 +2570,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>13</v>
@@ -2564,7 +2585,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>22</v>
@@ -2573,22 +2594,25 @@
         <v>15</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O2" s="7">
+      <c r="P2" s="7">
         <v>5</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -2599,10 +2623,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
@@ -2611,7 +2635,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>14</v>
@@ -2620,22 +2644,25 @@
         <v>15</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O3" s="7">
+      <c r="P3" s="7">
         <v>5</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -2646,10 +2673,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>12</v>
@@ -2670,22 +2697,25 @@
         <v>15</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O4" s="7">
+      <c r="P4" s="7">
         <v>5</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -2696,10 +2726,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>12</v>
@@ -2720,22 +2750,25 @@
         <v>15</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="7">
+      <c r="P5" s="7">
         <v>5</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -2746,10 +2779,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>12</v>
@@ -2770,22 +2803,25 @@
         <v>15</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="7">
+      <c r="P6" s="7">
         <v>5</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="Q6" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -2796,10 +2832,10 @@
         <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>12</v>
@@ -2820,22 +2856,25 @@
         <v>15</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="7">
+      <c r="P7" s="7">
         <v>5</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="Q7" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2846,10 +2885,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>12</v>
@@ -2862,22 +2901,25 @@
         <v>23</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="7">
+      <c r="P8" s="7">
         <v>5</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -2888,10 +2930,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>13</v>
@@ -2917,33 +2959,18 @@
       <c r="M9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="7">
+      <c r="P9" s="7">
         <v>5</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="Q9" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2951,7 +2978,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K9">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q9">
       <formula1>"拼接路径,不拼接路径"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
@@ -2965,10 +2992,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L1:L1048576"/>
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2981,13 +3008,14 @@
     <col min="11" max="11" width="5.625" style="2" customWidth="1"/>
     <col min="12" max="12" width="7.5" style="8" customWidth="1"/>
     <col min="13" max="13" width="10.875" style="9"/>
-    <col min="14" max="14" width="5.125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="7.625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10.875" style="8"/>
-    <col min="17" max="16384" width="10.875" style="2"/>
+    <col min="14" max="14" width="12" style="9" customWidth="1"/>
+    <col min="15" max="15" width="5.125" style="9" customWidth="1"/>
+    <col min="16" max="16" width="7.625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="10.875" style="8"/>
+    <col min="18" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2998,13 +3026,13 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>40</v>
@@ -3028,16 +3056,19 @@
         <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
@@ -3048,10 +3079,10 @@
         <v>62</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>50</v>
@@ -3077,17 +3108,20 @@
       <c r="M2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O2" s="7">
+      <c r="P2" s="7">
         <v>5</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -3098,10 +3132,10 @@
         <v>64</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>54</v>
@@ -3119,22 +3153,25 @@
         <v>56</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O3" s="7">
+      <c r="P3" s="7">
         <v>5</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -3145,10 +3182,10 @@
         <v>67</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>54</v>
@@ -3169,22 +3206,25 @@
         <v>56</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O4" s="7">
+      <c r="P4" s="7">
         <v>5</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -3195,10 +3235,10 @@
         <v>67</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>54</v>
@@ -3219,22 +3259,25 @@
         <v>56</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="7">
+      <c r="P5" s="7">
         <v>5</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -3245,10 +3288,10 @@
         <v>67</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>54</v>
@@ -3269,22 +3312,25 @@
         <v>56</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="7">
+      <c r="P6" s="7">
         <v>5</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="Q6" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
@@ -3295,10 +3341,10 @@
         <v>67</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>54</v>
@@ -3319,22 +3365,25 @@
         <v>56</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="7">
+      <c r="P7" s="7">
         <v>5</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="Q7" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
@@ -3345,10 +3394,10 @@
         <v>67</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>51</v>
@@ -3361,22 +3410,25 @@
         <v>76</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="7">
+      <c r="P8" s="7">
         <v>5</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>77</v>
       </c>
@@ -3387,10 +3439,10 @@
         <v>62</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>55</v>
@@ -3416,33 +3468,38 @@
       <c r="M9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="7">
+      <c r="P9" s="7">
         <v>5</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="Q9" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="8"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P10" s="9"/>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="8"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="8"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="8"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -3451,7 +3508,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K9">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q9">
       <formula1>"拼接路径,不拼接路径"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
@@ -3465,10 +3522,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3481,13 +3538,14 @@
     <col min="11" max="11" width="5.625" style="2" customWidth="1"/>
     <col min="12" max="12" width="7.5" style="8" customWidth="1"/>
     <col min="13" max="13" width="10.875" style="9"/>
-    <col min="14" max="14" width="5.125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="7.625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10.875" style="8"/>
-    <col min="17" max="16384" width="10.875" style="2"/>
+    <col min="14" max="14" width="12" style="9" customWidth="1"/>
+    <col min="15" max="15" width="5.125" style="9" customWidth="1"/>
+    <col min="16" max="16" width="7.625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="10.875" style="8"/>
+    <col min="18" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3498,13 +3556,13 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>40</v>
@@ -3528,27 +3586,30 @@
         <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>51</v>
@@ -3566,7 +3627,7 @@
         <v>51</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>15</v>
@@ -3575,30 +3636,33 @@
         <v>16</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O2" s="7">
+      <c r="P2" s="7">
         <v>5</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>51</v>
@@ -3613,39 +3677,42 @@
         <v>51</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O3" s="7">
+      <c r="P3" s="7">
         <v>5</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>51</v>
@@ -3663,39 +3730,42 @@
         <v>12</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O4" s="7">
+      <c r="P4" s="7">
         <v>5</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>51</v>
@@ -3713,39 +3783,42 @@
         <v>12</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="7">
+      <c r="P5" s="7">
         <v>5</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>51</v>
@@ -3763,39 +3836,42 @@
         <v>12</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="7">
+      <c r="P6" s="7">
         <v>5</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="Q6" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>51</v>
@@ -3813,39 +3889,42 @@
         <v>12</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="7">
+      <c r="P7" s="7">
         <v>5</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="Q7" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>51</v>
@@ -3861,33 +3940,36 @@
         <v>23</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="7">
+      <c r="P8" s="7">
         <v>5</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>51</v>
@@ -3905,7 +3987,7 @@
         <v>12</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>15</v>
@@ -3914,35 +3996,40 @@
         <v>16</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N9" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="7">
+      <c r="P9" s="7">
         <v>5</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="Q9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="8"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P10" s="9"/>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="8"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="8"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3950,7 +4037,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K9">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q9">
       <formula1>"拼接路径,不拼接路径"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
@@ -3965,10 +4052,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3981,13 +4068,14 @@
     <col min="11" max="11" width="5.625" style="2" customWidth="1"/>
     <col min="12" max="12" width="7.5" style="8" customWidth="1"/>
     <col min="13" max="13" width="10.875" style="9"/>
-    <col min="14" max="14" width="5.125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="7.625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="10.875" style="8"/>
-    <col min="17" max="16384" width="10.875" style="2"/>
+    <col min="14" max="14" width="12" style="9" customWidth="1"/>
+    <col min="15" max="15" width="5.125" style="9" customWidth="1"/>
+    <col min="16" max="16" width="7.625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="10.875" style="8"/>
+    <col min="18" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3998,13 +4086,13 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>40</v>
@@ -4028,30 +4116,33 @@
         <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>50</v>
@@ -4066,7 +4157,7 @@
         <v>51</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>52</v>
@@ -4075,24 +4166,27 @@
         <v>16</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" s="7">
-        <v>5</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>64</v>
@@ -4101,7 +4195,7 @@
         <v>51</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>51</v>
@@ -4113,33 +4207,36 @@
         <v>51</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>52</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O3" s="7">
+      <c r="P3" s="7">
         <v>5</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>64</v>
@@ -4148,7 +4245,7 @@
         <v>51</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>51</v>
@@ -4163,33 +4260,36 @@
         <v>51</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>52</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O4" s="7">
+      <c r="P4" s="7">
         <v>5</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>64</v>
@@ -4198,7 +4298,7 @@
         <v>51</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>51</v>
@@ -4213,33 +4313,36 @@
         <v>51</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>52</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="7">
+      <c r="P5" s="7">
         <v>5</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>64</v>
@@ -4248,7 +4351,7 @@
         <v>51</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>51</v>
@@ -4263,33 +4366,36 @@
         <v>51</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>52</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="7">
+      <c r="P6" s="7">
         <v>5</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="Q6" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>64</v>
@@ -4298,7 +4404,7 @@
         <v>51</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>51</v>
@@ -4313,33 +4419,36 @@
         <v>51</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>52</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="7">
+      <c r="P7" s="7">
         <v>5</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="Q7" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>64</v>
@@ -4348,7 +4457,7 @@
         <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>51</v>
@@ -4361,36 +4470,39 @@
         <v>23</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="7">
+      <c r="P8" s="7">
         <v>5</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>50</v>
@@ -4405,7 +4517,7 @@
         <v>51</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>52</v>
@@ -4414,40 +4526,45 @@
         <v>16</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N9" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="7">
+      <c r="P9" s="7">
         <v>5</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="Q9" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="8"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P10" s="9"/>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="8"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="8"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q9">
       <formula1>"拼接路径,不拼接路径"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K9">

--- a/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化一维二维单元尺寸定义（模板）.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化一维二维单元尺寸定义（模板）.xlsx
@@ -199,9 +199,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-窗口一
-窗口二
-窗口三</t>
+通用
+特殊一
+特殊二</t>
         </r>
       </text>
     </comment>
@@ -762,7 +762,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="163">
   <si>
     <t>关闭按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1133,14 +1133,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>操作控件后等待时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有弹窗出现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>弹窗标题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1149,10 +1141,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>弹窗中输入文件名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>弹窗类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1165,18 +1153,6 @@
   </si>
   <si>
     <t>是否有嵌套弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗关闭按钮名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1415,6 +1391,34 @@
   </si>
   <si>
     <t>信息窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作控件后等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有弹窗出现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗中输入文件名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗关闭按钮名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果等待时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1897,13 +1901,13 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>40</v>
@@ -1927,13 +1931,13 @@
         <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>48</v>
@@ -1950,10 +1954,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>13</v>
@@ -2117,7 +2121,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="48.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2133,13 +2137,13 @@
     <row r="1" spans="1:7" s="10" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>40</v>
@@ -2156,13 +2160,13 @@
         <v>82</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>83</v>
@@ -2179,22 +2183,22 @@
         <v>85</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>86</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2225,27 +2229,27 @@
         <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -2268,209 +2272,209 @@
     </row>
     <row r="7" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>96</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2485,8 +2489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:Q9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2517,13 +2521,13 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>40</v>
@@ -2547,13 +2551,13 @@
         <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>48</v>
@@ -2570,10 +2574,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>13</v>
@@ -2585,7 +2589,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>22</v>
@@ -2594,7 +2598,7 @@
         <v>15</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>59</v>
@@ -2606,7 +2610,7 @@
         <v>81</v>
       </c>
       <c r="P2" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>41</v>
@@ -2623,10 +2627,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
@@ -2635,7 +2639,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>14</v>
@@ -2644,7 +2648,7 @@
         <v>15</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>59</v>
@@ -2656,7 +2660,7 @@
         <v>81</v>
       </c>
       <c r="P3" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>41</v>
@@ -2673,10 +2677,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>12</v>
@@ -2697,7 +2701,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>59</v>
@@ -2709,7 +2713,7 @@
         <v>81</v>
       </c>
       <c r="P4" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>41</v>
@@ -2726,10 +2730,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>12</v>
@@ -2750,7 +2754,7 @@
         <v>15</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>59</v>
@@ -2762,7 +2766,7 @@
         <v>81</v>
       </c>
       <c r="P5" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>41</v>
@@ -2779,10 +2783,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>12</v>
@@ -2803,7 +2807,7 @@
         <v>15</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>59</v>
@@ -2815,7 +2819,7 @@
         <v>81</v>
       </c>
       <c r="P6" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>41</v>
@@ -2832,10 +2836,10 @@
         <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>12</v>
@@ -2856,7 +2860,7 @@
         <v>15</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>59</v>
@@ -2868,7 +2872,7 @@
         <v>81</v>
       </c>
       <c r="P7" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>42</v>
@@ -2885,10 +2889,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>12</v>
@@ -2901,7 +2905,7 @@
         <v>23</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>59</v>
@@ -2913,7 +2917,7 @@
         <v>81</v>
       </c>
       <c r="P8" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>42</v>
@@ -2930,10 +2934,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>13</v>
@@ -2966,7 +2970,7 @@
         <v>81</v>
       </c>
       <c r="P9" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>42</v>
@@ -2995,7 +2999,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3026,13 +3030,13 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>40</v>
@@ -3056,13 +3060,13 @@
         <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>48</v>
@@ -3079,10 +3083,10 @@
         <v>62</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>50</v>
@@ -3115,7 +3119,7 @@
         <v>81</v>
       </c>
       <c r="P2" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>53</v>
@@ -3132,10 +3136,10 @@
         <v>64</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>54</v>
@@ -3153,7 +3157,7 @@
         <v>56</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>59</v>
@@ -3165,7 +3169,7 @@
         <v>81</v>
       </c>
       <c r="P3" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>57</v>
@@ -3182,10 +3186,10 @@
         <v>67</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>54</v>
@@ -3206,7 +3210,7 @@
         <v>56</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>59</v>
@@ -3218,7 +3222,7 @@
         <v>81</v>
       </c>
       <c r="P4" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>57</v>
@@ -3235,10 +3239,10 @@
         <v>67</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>54</v>
@@ -3259,7 +3263,7 @@
         <v>56</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>59</v>
@@ -3271,7 +3275,7 @@
         <v>81</v>
       </c>
       <c r="P5" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>57</v>
@@ -3288,10 +3292,10 @@
         <v>67</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>54</v>
@@ -3312,7 +3316,7 @@
         <v>56</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>59</v>
@@ -3324,7 +3328,7 @@
         <v>81</v>
       </c>
       <c r="P6" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>57</v>
@@ -3341,10 +3345,10 @@
         <v>67</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>54</v>
@@ -3365,7 +3369,7 @@
         <v>56</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>59</v>
@@ -3377,7 +3381,7 @@
         <v>81</v>
       </c>
       <c r="P7" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>58</v>
@@ -3394,10 +3398,10 @@
         <v>67</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>51</v>
@@ -3410,7 +3414,7 @@
         <v>76</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>59</v>
@@ -3422,7 +3426,7 @@
         <v>81</v>
       </c>
       <c r="P8" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>58</v>
@@ -3439,10 +3443,10 @@
         <v>62</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>55</v>
@@ -3475,7 +3479,7 @@
         <v>81</v>
       </c>
       <c r="P9" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>58</v>
@@ -3525,7 +3529,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3556,13 +3560,13 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>40</v>
@@ -3586,13 +3590,13 @@
         <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>48</v>
@@ -3600,16 +3604,16 @@
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>51</v>
@@ -3627,7 +3631,7 @@
         <v>51</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>15</v>
@@ -3636,16 +3640,16 @@
         <v>16</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>81</v>
       </c>
       <c r="P2" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>41</v>
@@ -3653,16 +3657,16 @@
     </row>
     <row r="3" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>51</v>
@@ -3677,25 +3681,25 @@
         <v>51</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>81</v>
       </c>
       <c r="P3" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>41</v>
@@ -3703,16 +3707,16 @@
     </row>
     <row r="4" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>51</v>
@@ -3730,25 +3734,25 @@
         <v>12</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>81</v>
       </c>
       <c r="P4" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>41</v>
@@ -3756,16 +3760,16 @@
     </row>
     <row r="5" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>51</v>
@@ -3783,25 +3787,25 @@
         <v>12</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>81</v>
       </c>
       <c r="P5" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>41</v>
@@ -3809,16 +3813,16 @@
     </row>
     <row r="6" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>51</v>
@@ -3836,25 +3840,25 @@
         <v>12</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>81</v>
       </c>
       <c r="P6" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>41</v>
@@ -3862,16 +3866,16 @@
     </row>
     <row r="7" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>51</v>
@@ -3889,25 +3893,25 @@
         <v>12</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>81</v>
       </c>
       <c r="P7" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>42</v>
@@ -3915,16 +3919,16 @@
     </row>
     <row r="8" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>51</v>
@@ -3940,19 +3944,19 @@
         <v>23</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>81</v>
       </c>
       <c r="P8" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>42</v>
@@ -3960,16 +3964,16 @@
     </row>
     <row r="9" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>51</v>
@@ -3987,7 +3991,7 @@
         <v>12</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>15</v>
@@ -3996,16 +4000,16 @@
         <v>16</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>81</v>
       </c>
       <c r="P9" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>42</v>
@@ -4055,7 +4059,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4086,13 +4090,13 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>40</v>
@@ -4116,13 +4120,13 @@
         <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>48</v>
@@ -4130,19 +4134,19 @@
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>50</v>
@@ -4157,7 +4161,7 @@
         <v>51</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>52</v>
@@ -4166,16 +4170,16 @@
         <v>16</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>81</v>
       </c>
       <c r="P2" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>53</v>
@@ -4183,10 +4187,10 @@
     </row>
     <row r="3" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>64</v>
@@ -4195,7 +4199,7 @@
         <v>51</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>51</v>
@@ -4207,25 +4211,25 @@
         <v>51</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>52</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>81</v>
       </c>
       <c r="P3" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>53</v>
@@ -4233,10 +4237,10 @@
     </row>
     <row r="4" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>64</v>
@@ -4245,7 +4249,7 @@
         <v>51</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>51</v>
@@ -4260,25 +4264,25 @@
         <v>51</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>52</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>81</v>
       </c>
       <c r="P4" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>53</v>
@@ -4286,10 +4290,10 @@
     </row>
     <row r="5" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>64</v>
@@ -4298,7 +4302,7 @@
         <v>51</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>51</v>
@@ -4313,25 +4317,25 @@
         <v>51</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>52</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>81</v>
       </c>
       <c r="P5" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>53</v>
@@ -4339,10 +4343,10 @@
     </row>
     <row r="6" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>64</v>
@@ -4351,7 +4355,7 @@
         <v>51</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>51</v>
@@ -4366,25 +4370,25 @@
         <v>51</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>52</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>81</v>
       </c>
       <c r="P6" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>53</v>
@@ -4392,10 +4396,10 @@
     </row>
     <row r="7" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>64</v>
@@ -4404,7 +4408,7 @@
         <v>51</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>51</v>
@@ -4419,25 +4423,25 @@
         <v>51</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>52</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>81</v>
       </c>
       <c r="P7" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>58</v>
@@ -4445,10 +4449,10 @@
     </row>
     <row r="8" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>64</v>
@@ -4457,7 +4461,7 @@
         <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>51</v>
@@ -4470,19 +4474,19 @@
         <v>23</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>81</v>
       </c>
       <c r="P8" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>58</v>
@@ -4490,19 +4494,19 @@
     </row>
     <row r="9" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>50</v>
@@ -4517,7 +4521,7 @@
         <v>51</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>52</v>
@@ -4526,16 +4530,16 @@
         <v>16</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>81</v>
       </c>
       <c r="P9" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>58</v>

--- a/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化一维二维单元尺寸定义（模板）.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化一维二维单元尺寸定义（模板）.xlsx
@@ -2121,7 +2121,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="48.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2490,7 +2490,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2999,7 +2999,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
